--- a/data/trans_camb/P05A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.855285279352267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.28522747210425</v>
+        <v>-12.28522747210426</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.103554209666622</v>
@@ -655,7 +655,7 @@
         <v>-0.2418402165041578</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-16.28720771095517</v>
+        <v>-16.28720771095518</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.852855606763879</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.865819957193349</v>
+        <v>2.224046265491491</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3854619690847245</v>
+        <v>0.3697438439247535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.2838783867655</v>
+        <v>-16.36056741094235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.608464542878666</v>
+        <v>1.183434475663336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.453929210156556</v>
+        <v>-4.52104469932218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.8853039932459</v>
+        <v>-19.44793833191231</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.903394924139003</v>
+        <v>2.922790470064493</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.043289052953174</v>
+        <v>-1.217013187386792</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.15370241087346</v>
+        <v>-17.09944777307249</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.1341227549592</v>
+        <v>11.17214786963192</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.295956619022727</v>
+        <v>9.624416776094876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.883742417035671</v>
+        <v>-7.887489399904106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.742367710110809</v>
+        <v>8.996858539503103</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.636363898968073</v>
+        <v>4.027880911873917</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.07678360331544</v>
+        <v>-12.73535224791781</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.726280790839143</v>
+        <v>8.546285177033196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.049278269206435</v>
+        <v>5.007336426654292</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-11.831427306397</v>
+        <v>-11.97372229729004</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1537263214648812</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3889705174847804</v>
+        <v>-0.3889705174847805</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1482660127531359</v>
@@ -760,7 +760,7 @@
         <v>-0.007025826150040809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4731681583026033</v>
+        <v>-0.4731681583026034</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1764284175573238</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08221798817811275</v>
+        <v>0.06510889738351643</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01290643980807326</v>
+        <v>0.01131945053060685</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4984411584154151</v>
+        <v>-0.4891789858508405</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04475065012312764</v>
+        <v>0.03269889412154943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1269071666127278</v>
+        <v>-0.1247342576565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5464418372483386</v>
+        <v>-0.5427254710983538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08397679963432814</v>
+        <v>0.08548428648613014</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02947232055680474</v>
+        <v>-0.03470868146913678</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.493943425901814</v>
+        <v>-0.498692083490964</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3726253345767966</v>
+        <v>0.379731811022574</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3140737403736581</v>
+        <v>0.3302124988827509</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.264713664905235</v>
+        <v>-0.2640625552238696</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2658470071591693</v>
+        <v>0.2738769794866058</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1129796970228174</v>
+        <v>0.1229392432643791</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3978732069911358</v>
+        <v>-0.3915803818659998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2733330595542854</v>
+        <v>0.27038967158154</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1594881962022579</v>
+        <v>0.1556864408899921</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.369949423833748</v>
+        <v>-0.3753216875486404</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.918919762507543</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-14.7401108570563</v>
+        <v>-14.74011085705631</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>8.355775083707856</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.841948139926128</v>
+        <v>9.045412981309134</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.354388692689456</v>
+        <v>4.37662477939124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.01668161108079</v>
+        <v>-13.06354264814604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.879781243676365</v>
+        <v>1.229469202601595</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.617640102230486</v>
+        <v>-1.367405326376053</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.96434399140949</v>
+        <v>-17.80089631980786</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.187841903798409</v>
+        <v>6.043506147409502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.571546691589097</v>
+        <v>2.79871656904733</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.61696278645923</v>
+        <v>-14.3839778215188</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.56441387683667</v>
+        <v>15.16238765581819</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.6170940427476</v>
+        <v>10.43821831178159</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.047338719304504</v>
+        <v>-7.052827333371938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.792769749787334</v>
+        <v>7.747183813728807</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.074415946912363</v>
+        <v>5.182309184473489</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.11256122073038</v>
+        <v>-11.77214842023755</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.97372211159979</v>
+        <v>10.53638214973973</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.072143887484826</v>
+        <v>7.048987879162503</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.4056512214146</v>
+        <v>-10.15347133679399</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.05525035143530204</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4244035216894437</v>
+        <v>-0.4244035216894438</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.270428043459463</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3034532653136333</v>
+        <v>0.3173290484142991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1549831590766992</v>
+        <v>0.1545646732886159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4505944105913059</v>
+        <v>-0.453750149479128</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02441828612636896</v>
+        <v>0.03294501477907748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04337239861214219</v>
+        <v>-0.03574131730882713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4878428151848014</v>
+        <v>-0.4842307296340462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1904001928916847</v>
+        <v>0.1890945555050755</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08180349134866101</v>
+        <v>0.08666822400291593</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4511492469838691</v>
+        <v>-0.4486949448337456</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6069113033916769</v>
+        <v>0.5981326496958088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.41610160143497</v>
+        <v>0.4069896953789778</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2747513211499282</v>
+        <v>-0.2750315383511151</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.238349592210055</v>
+        <v>0.2363127505783998</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.152844756505898</v>
+        <v>0.1604962035726367</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3643764557748555</v>
+        <v>-0.3571269334070023</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3698933596717822</v>
+        <v>0.3549122688868613</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2395537977639987</v>
+        <v>0.2411859983129307</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3474352532824782</v>
+        <v>-0.3461075374760125</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.05600892254809</v>
+        <v>4.333809464937302</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.254866145393424</v>
+        <v>1.989701514427896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.00478894898694</v>
+        <v>-15.94145107747753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.209093885676428</v>
+        <v>4.023061133528281</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.776301746140796</v>
+        <v>2.305692468230804</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.2597779126855</v>
+        <v>-14.84090699526745</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.966168509292986</v>
+        <v>6.456795848136119</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.443340936376285</v>
+        <v>3.588678738950432</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.84333175188072</v>
+        <v>-13.54453138946429</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.29560769495485</v>
+        <v>17.46094899057383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.63938440672583</v>
+        <v>14.17433026718681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.990092030530656</v>
+        <v>-5.141152085884746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.47187197190282</v>
+        <v>16.55043140133081</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.88963088372348</v>
+        <v>13.95585625415551</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.32964046437658</v>
+        <v>-4.141723975381932</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.12258852758458</v>
+        <v>15.25859353089511</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.20293995514004</v>
+        <v>12.04123079167011</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.803144784925916</v>
+        <v>-5.908509538924351</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2394569765813201</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3132104115222931</v>
+        <v>-0.3132104115222932</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3099795565541746</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1415708674411005</v>
+        <v>0.1197189755406015</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06095643443286695</v>
+        <v>0.05257788638519512</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4294119695518806</v>
+        <v>-0.444112273973309</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1184332912050252</v>
+        <v>0.1147366782057356</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04425159450681847</v>
+        <v>0.06449391861702529</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4061472539169836</v>
+        <v>-0.4007542651720912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1768368382963543</v>
+        <v>0.1850176232203661</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09503898257976108</v>
+        <v>0.1078039032653286</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3887309492971039</v>
+        <v>-0.3839825267383306</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5932812918901759</v>
+        <v>0.5915676182436962</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4922874401725831</v>
+        <v>0.4734473434150945</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1664219527208094</v>
+        <v>-0.1707119876127464</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5410478292067668</v>
+        <v>0.5515113793720792</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4625296025581142</v>
+        <v>0.4653702739846958</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1449284161140384</v>
+        <v>-0.1385736496168673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.50553847548871</v>
+        <v>0.5024066520872034</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3931273525637489</v>
+        <v>0.4053816494120311</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1940755485208062</v>
+        <v>-0.190872385116514</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.479447880079602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.97652688724182</v>
+        <v>-10.97652688724181</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.455531932259899</v>
@@ -1306,7 +1306,7 @@
         <v>4.334500573485078</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.53389067622177</v>
+        <v>-12.53389067622176</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.766869056990814</v>
+        <v>7.679715987226869</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.191270667154715</v>
+        <v>3.650918048446256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-13.14162710714966</v>
+        <v>-13.00710285141452</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.136245079146808</v>
+        <v>3.089351464558701</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.02162251051184598</v>
+        <v>-0.03807512784157799</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.07606083248854</v>
+        <v>-16.03268061264997</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.040055290455961</v>
+        <v>6.144068758525746</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.733134154740726</v>
+        <v>2.770829289953677</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.11728454635245</v>
+        <v>-14.04756301165241</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.37141772186009</v>
+        <v>12.51454867126471</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.615755324475211</v>
+        <v>8.616528225453878</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.88276572852967</v>
+        <v>-8.800834081625492</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.646594376937809</v>
+        <v>8.038108396761952</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.981989077298833</v>
+        <v>4.799667638193724</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-12.07068686544712</v>
+        <v>-11.94013697102252</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.500197335508611</v>
+        <v>9.462317546778547</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.081535414413303</v>
+        <v>6.066471319516799</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.94571315084999</v>
+        <v>-11.04946501853456</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2194610650246515</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3717786338480767</v>
+        <v>-0.3717786338480766</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1585573852424747</v>
@@ -1402,7 +1402,7 @@
         <v>0.0654029064032509</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4088358963760896</v>
+        <v>-0.4088358963760895</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2428663257980737</v>
@@ -1411,7 +1411,7 @@
         <v>0.1354383805600345</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.391641395940361</v>
+        <v>-0.3916413959403609</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2519824804365333</v>
+        <v>0.2502186146013045</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1382566621719787</v>
+        <v>0.1191084990754694</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4282554123223531</v>
+        <v>-0.4280676658344464</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08699654548752291</v>
+        <v>0.08626390043772091</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0006678647413321416</v>
+        <v>-0.0004440028735832417</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4520130947395417</v>
+        <v>-0.4517801768058792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1820408298570604</v>
+        <v>0.1884506417371319</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08185933228622891</v>
+        <v>0.08520425475991836</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4277551882592673</v>
+        <v>-0.4269765151316835</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.43544400259459</v>
+        <v>0.4436191886147405</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3038530014953785</v>
+        <v>0.3058979705280059</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3054025210209841</v>
+        <v>-0.311580063698718</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.227938277736178</v>
+        <v>0.24177363796811</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1502293679648628</v>
+        <v>0.1452696323360445</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3643351906656108</v>
+        <v>-0.3605154301929914</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3045996471522074</v>
+        <v>0.3048495445653313</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1949837924585595</v>
+        <v>0.1971203147329724</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3514284835026704</v>
+        <v>-0.3553795772636972</v>
       </c>
     </row>
     <row r="28">
